--- a/quanlysinhvien/sinhvientinchi/dsSinhVienTC.xlsx
+++ b/quanlysinhvien/sinhvientinchi/dsSinhVienTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10305" windowHeight="6405"/>
+    <workbookView windowHeight="3585" windowWidth="15540" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -98,26 +98,33 @@
     <t>buidieu@gmail.com</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>0122245678</t>
+  </si>
+  <si>
+    <t>SV005</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>14-02-1999</t>
+  </si>
+  <si>
+    <t>nguyena@gmail.com</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,21 +156,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,50 +211,50 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,14 +282,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -280,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,180 +362,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -525,22 +572,22 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
+      <c r="K2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -551,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -568,17 +615,55 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/quanlysinhvien/sinhvientinchi/dsSinhVienTC.xlsx
+++ b/quanlysinhvien/sinhvientinchi/dsSinhVienTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="3585" windowWidth="15540" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="5025" yWindow="3360" windowWidth="11895" windowHeight="6405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -122,9 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -156,14 +155,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -189,10 +188,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -211,10 +210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -249,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -412,21 +411,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -443,7 +442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -495,23 +494,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -577,17 +579,17 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>3.4</v>
       </c>
-      <c r="L2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -625,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -653,17 +655,17 @@
       <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>